--- a/environment/runtimefiles/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\data\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A86B4CE-6E2A-42DC-B8FD-C8D3060A4BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C7007-2008-47CA-9D05-9F6CA8BE99F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="1575" windowWidth="20685" windowHeight="19005" firstSheet="7" activeTab="7" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="9315" yWindow="2115" windowWidth="15735" windowHeight="15930" firstSheet="5" activeTab="7" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="607">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -2594,10 +2594,22 @@
     <t>&lt;zdevsettings name=[RiserName] type=[string]&gt;</t>
   </si>
   <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[53]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[52]&gt;</t>
+    <t>VEL_POWER_ARK</t>
+  </si>
+  <si>
+    <t>UUVEL_POWER_ARK</t>
+  </si>
+  <si>
+    <t>Я могу быть скопирован построчно</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[ANALYSISEM_exporttoxlsx] type=[boolean]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[56]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[55]&gt;</t>
   </si>
 </sst>
 </file>
@@ -13029,7 +13041,7 @@
   <dimension ref="A3:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13141,7 +13153,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
@@ -13167,11 +13179,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="52" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!BD11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BG11</f>
         <v>0</v>
       </c>
       <c r="J6" s="52">
-        <f>'&lt;zalldev&gt;EXPORT'!BC11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BF11</f>
         <v>0</v>
       </c>
       <c r="K6" s="52">
@@ -15669,7 +15681,7 @@
     </row>
     <row r="28" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="222" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D28" s="61">
         <f>IF(COUNT($CS$28:CS28)=MATCH(CR28,$CR$28:CR28,0),CR28,"")</f>
@@ -15748,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!AX11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BA11</f>
         <v>1</v>
       </c>
       <c r="X28" s="53">
@@ -16016,7 +16028,7 @@
         <v>#N/A</v>
       </c>
       <c r="CR28" s="210">
-        <f>'&lt;zalldev&gt;EXPORT'!AU11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!AX11</f>
         <v>-1</v>
       </c>
       <c r="CS28" s="210">
@@ -16028,11 +16040,11 @@
         <v>#REF!</v>
       </c>
       <c r="CU28" s="210" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!AV11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!AY11</f>
         <v>-1</v>
       </c>
       <c r="CV28" s="211" t="e">
-        <f>'&lt;zalldev&gt;EXPORT'!BD11-$T$16-1</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BG11-$T$16-1</f>
         <v>#N/A</v>
       </c>
       <c r="CW28" s="211">
@@ -16048,7 +16060,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ28" s="211">
-        <f>'&lt;zalldev&gt;EXPORT'!BC11*1</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BF11*1</f>
         <v>0</v>
       </c>
       <c r="DA28" s="212">
@@ -16482,27 +16494,27 @@
         <v>210</v>
       </c>
       <c r="HL28" s="121" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!AM11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!AP11</f>
         <v>&lt;zcadnameblock&gt;</v>
       </c>
       <c r="HM28" s="121" t="e">
-        <f>FS28+12.5*$Z$5+INDEX(BDUGO!$D$4:$D$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))*$Z$5</f>
+        <f>FS28+12.5*$Z$5+INDEX(BDUGO!$D$4:$D$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))*$Z$5</f>
         <v>#N/A</v>
       </c>
       <c r="HN28" s="121" t="e">
-        <f>FT28+42.5*$Z$6+INDEX(BDUGO!$E$4:$E$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))*$Z$6</f>
+        <f>FT28+42.5*$Z$6+INDEX(BDUGO!$E$4:$E$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))*$Z$6</f>
         <v>#N/A</v>
       </c>
       <c r="HO28" s="121" t="e">
-        <f>IF(INDEX(BDUGO!$F$4:$F$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))=0,1,INDEX(BDUGO!$F$4:$F$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0)))*$Z$5</f>
+        <f>IF(INDEX(BDUGO!$F$4:$F$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))=0,1,INDEX(BDUGO!$F$4:$F$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0)))*$Z$5</f>
         <v>#N/A</v>
       </c>
       <c r="HP28" s="121" t="e">
-        <f>IF(INDEX(BDUGO!$G$4:$G$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))=0,1,INDEX(BDUGO!$G$4:$G$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0)))*$Z$6</f>
+        <f>IF(INDEX(BDUGO!$G$4:$G$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))=0,1,INDEX(BDUGO!$G$4:$G$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0)))*$Z$6</f>
         <v>#N/A</v>
       </c>
       <c r="HQ28" s="121" t="e">
-        <f>INDEX(BDUGO!$H$4:$H$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))</f>
+        <f>INDEX(BDUGO!$H$4:$H$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))</f>
         <v>#N/A</v>
       </c>
       <c r="HR28" s="151" t="s">
@@ -18591,10 +18603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF4D7D-6E66-4BDD-B569-46F1C33B4B46}">
-  <dimension ref="C1:H31"/>
+  <dimension ref="C1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18836,7 +18848,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="164" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="D14" s="165">
         <v>0</v>
@@ -18845,10 +18857,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="165">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G14" s="165">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H14" s="165">
         <v>0</v>
@@ -18856,7 +18868,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="164" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="D15" s="165">
         <v>0</v>
@@ -18876,19 +18888,19 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="164" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D16" s="165">
         <v>0</v>
       </c>
       <c r="E16" s="165">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F16" s="165">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G16" s="165">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H16" s="165">
         <v>0</v>
@@ -18896,13 +18908,13 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="164" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="D17" s="165">
         <v>0</v>
       </c>
       <c r="E17" s="165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F17" s="165">
         <v>1</v>
@@ -18916,7 +18928,7 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="164" t="s">
-        <v>578</v>
+        <v>437</v>
       </c>
       <c r="D18" s="165">
         <v>0</v>
@@ -18936,7 +18948,7 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="164" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
       <c r="D19" s="165">
         <v>0</v>
@@ -18956,7 +18968,7 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="164" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D20" s="165">
         <v>0</v>
@@ -18976,7 +18988,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="164" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D21" s="165">
         <v>0</v>
@@ -18996,7 +19008,7 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="164" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D22" s="165">
         <v>0</v>
@@ -19016,7 +19028,7 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="164" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D23" s="165">
         <v>0</v>
@@ -19036,7 +19048,7 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="164" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D24" s="165">
         <v>0</v>
@@ -19056,13 +19068,13 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="164" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="D25" s="165">
         <v>0</v>
       </c>
       <c r="E25" s="165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="165">
         <v>1</v>
@@ -19071,12 +19083,12 @@
         <v>1</v>
       </c>
       <c r="H25" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="164" t="s">
-        <v>532</v>
+        <v>444</v>
       </c>
       <c r="D26" s="165">
         <v>0</v>
@@ -19091,12 +19103,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="164" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D27" s="165">
         <v>0</v>
@@ -19116,7 +19128,7 @@
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="164" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D28" s="165">
         <v>0</v>
@@ -19136,7 +19148,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="164" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
       <c r="D29" s="165">
         <v>0</v>
@@ -19156,7 +19168,7 @@
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="164" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="D30" s="165">
         <v>0</v>
@@ -19176,13 +19188,13 @@
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="164" t="s">
-        <v>433</v>
+        <v>575</v>
       </c>
       <c r="D31" s="165">
         <v>0</v>
       </c>
       <c r="E31" s="165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="165">
         <v>1</v>
@@ -19191,6 +19203,46 @@
         <v>1</v>
       </c>
       <c r="H31" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="164" t="s">
+        <v>576</v>
+      </c>
+      <c r="D32" s="165">
+        <v>0</v>
+      </c>
+      <c r="E32" s="165">
+        <v>35</v>
+      </c>
+      <c r="F32" s="165">
+        <v>1</v>
+      </c>
+      <c r="G32" s="165">
+        <v>1</v>
+      </c>
+      <c r="H32" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="164" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" s="165">
+        <v>0</v>
+      </c>
+      <c r="E33" s="165">
+        <v>0</v>
+      </c>
+      <c r="F33" s="165">
+        <v>1</v>
+      </c>
+      <c r="G33" s="165">
+        <v>1</v>
+      </c>
+      <c r="H33" s="165">
         <v>0</v>
       </c>
     </row>
@@ -19539,10 +19591,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
-  <dimension ref="A3:BM11"/>
+  <dimension ref="A3:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13"/>
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19569,22 +19621,22 @@
     <col min="30" max="30" width="3.7109375" customWidth="1"/>
     <col min="31" max="32" width="12.7109375" customWidth="1"/>
     <col min="33" max="33" width="3.7109375" customWidth="1"/>
-    <col min="34" max="35" width="12.7109375" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" customWidth="1"/>
-    <col min="37" max="39" width="12.7109375" customWidth="1"/>
-    <col min="40" max="48" width="14.140625" customWidth="1"/>
-    <col min="49" max="50" width="16" customWidth="1"/>
-    <col min="51" max="64" width="12.7109375" customWidth="1"/>
+    <col min="34" max="38" width="12.7109375" customWidth="1"/>
+    <col min="39" max="39" width="3.7109375" customWidth="1"/>
+    <col min="40" max="42" width="12.7109375" customWidth="1"/>
+    <col min="43" max="51" width="14.140625" customWidth="1"/>
+    <col min="52" max="53" width="16" customWidth="1"/>
+    <col min="54" max="67" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="D3" s="245" t="s">
         <v>317</v>
       </c>
       <c r="E3" s="245"/>
       <c r="F3" s="245"/>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="D4" s="67" t="s">
         <v>318</v>
       </c>
@@ -19593,13 +19645,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>COLUMN(A7)-1</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:BM7" si="0">COLUMN(B7)-1</f>
+        <f t="shared" ref="B7:BP7" si="0">COLUMN(B7)-1</f>
         <v>1</v>
       </c>
       <c r="C7">
@@ -19734,21 +19786,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AN7">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="AV7">
         <f t="shared" si="0"/>
@@ -19770,15 +19810,15 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BA7" s="84">
+      <c r="BA7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BB7" s="84">
+      <c r="BB7">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BC7" s="84">
+      <c r="BC7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -19786,24 +19826,36 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="84">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="84">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="84">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BM7">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="BH7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="224"/>
       <c r="C8" s="244" t="s">
         <v>1</v>
@@ -19861,82 +19913,87 @@
       <c r="AH8" s="244"/>
       <c r="AI8" s="244"/>
       <c r="AJ8" s="244" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AK8" s="244"/>
       <c r="AL8" s="244"/>
-      <c r="AM8" s="107" t="s">
+      <c r="AM8" s="244" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN8" s="244"/>
+      <c r="AO8" s="244"/>
+      <c r="AP8" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="AN8" s="87" t="s">
+      <c r="AQ8" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="AO8" s="87" t="s">
+      <c r="AR8" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="AP8" s="87" t="s">
+      <c r="AS8" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="AQ8" s="87" t="s">
+      <c r="AT8" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="AR8" s="87" t="s">
+      <c r="AU8" s="87" t="s">
         <v>598</v>
       </c>
-      <c r="AS8" s="90" t="s">
+      <c r="AV8" s="90" t="s">
         <v>386</v>
       </c>
-      <c r="AT8" s="90" t="s">
+      <c r="AW8" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="AU8" s="90" t="s">
+      <c r="AX8" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="AV8" s="93" t="s">
+      <c r="AY8" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="AW8" s="87" t="s">
+      <c r="AZ8" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="AX8" s="87" t="s">
+      <c r="BA8" s="87" t="s">
         <v>328</v>
       </c>
-      <c r="AY8" s="85" t="s">
+      <c r="BB8" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="AZ8" s="86" t="s">
+      <c r="BC8" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="BA8" s="101" t="s">
+      <c r="BD8" s="101" t="s">
         <v>395</v>
       </c>
-      <c r="BB8" s="101" t="s">
+      <c r="BE8" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="BC8" s="93" t="s">
+      <c r="BF8" s="93" t="s">
         <v>393</v>
       </c>
-      <c r="BD8" s="100" t="s">
+      <c r="BG8" s="100" t="s">
         <v>394</v>
       </c>
-      <c r="BE8" s="85" t="s">
+      <c r="BH8" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="BF8" s="85" t="s">
+      <c r="BI8" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="BG8" s="85" t="s">
+      <c r="BJ8" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="BH8" s="85" t="s">
+      <c r="BK8" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
-      <c r="BK8" s="70"/>
       <c r="BL8" s="70"/>
+      <c r="BM8" s="70"/>
+      <c r="BN8" s="70"/>
+      <c r="BO8" s="70"/>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>165</v>
@@ -20043,39 +20100,48 @@
       <c r="AK9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="AL9" s="223" t="s">
+      <c r="AL9" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="AM9" s="52" t="s">
+      <c r="AM9" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
+      <c r="AO9" s="223" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP9" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="AQ9" s="72"/>
       <c r="AR9" s="72"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
       <c r="AV9" s="91"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="55"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="55"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
       <c r="BH9" s="55"/>
-      <c r="BI9" s="70"/>
-      <c r="BJ9" s="70"/>
-      <c r="BK9" s="70"/>
+      <c r="BI9" s="55"/>
+      <c r="BJ9" s="55"/>
+      <c r="BK9" s="55"/>
       <c r="BL9" s="70"/>
+      <c r="BM9" s="70"/>
+      <c r="BN9" s="70"/>
+      <c r="BO9" s="70"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>2</v>
       </c>
@@ -20114,35 +20180,38 @@
       <c r="AI10" s="53"/>
       <c r="AJ10" s="51"/>
       <c r="AK10" s="52"/>
-      <c r="AL10" s="223"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="223"/>
+      <c r="AP10" s="52"/>
       <c r="AQ10" s="73"/>
       <c r="AR10" s="73"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
       <c r="AV10" s="92"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="55"/>
-      <c r="BF10" s="55"/>
-      <c r="BG10" s="55"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="55"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="92"/>
       <c r="BH10" s="55"/>
-      <c r="BI10" s="70"/>
-      <c r="BJ10" s="70"/>
-      <c r="BK10" s="70"/>
+      <c r="BI10" s="55"/>
+      <c r="BJ10" s="55"/>
+      <c r="BK10" s="55"/>
       <c r="BL10" s="70"/>
+      <c r="BM10" s="70"/>
+      <c r="BN10" s="70"/>
+      <c r="BO10" s="70"/>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>161</v>
       </c>
@@ -20202,107 +20271,112 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
       <c r="AJ11" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="223"/>
-      <c r="AM11" s="52" t="s">
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="223"/>
+      <c r="AP11" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="AN11" s="72" t="str">
+      <c r="AQ11" s="72" t="str">
         <f>J11&amp;"-"&amp;M11&amp;"-"&amp;S11</f>
         <v>--</v>
       </c>
-      <c r="AO11" s="72">
+      <c r="AR11" s="72">
         <f>IF(S11="XPS",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="72">
+      <c r="AS11" s="72">
         <f>IF(S11="XT",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="72">
+      <c r="AT11" s="72">
         <f>IF(S11="Вкл",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR11" s="72">
-        <f>IF(AK11="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AS11" s="91">
-        <f>IFERROR(IF(AR11=1,0,IF(SUM(AO11:AQ11)&gt;0,0,IF(INDEX($AH$11:AH11,MATCH(J11,$D$11:D11,0))="True",1,0))),-1)</f>
+      <c r="AU11" s="72">
+        <f>IF(AN11="",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="91">
+        <f>IFERROR(IF(AU11=1,0,IF(SUM(AR11:AT11)&gt;0,0,IF(INDEX($AH$11:AH11,MATCH(J11,$D$11:D11,0))="True",1,0))),-1)</f>
         <v>-1</v>
       </c>
-      <c r="AT11" s="91" t="str">
-        <f>IF(AS11=-1,IF(SUM(AO11:AQ11)&gt;0,INDEX($AT$11:AT11,COUNT($AY$11:AY11)-1),"-1"),IF(AS11=1,J11,INDEX($AT$11:AT11,COUNT($AY$11:AY11)-1)))</f>
+      <c r="AW11" s="91" t="str">
+        <f>IF(AV11=-1,IF(SUM(AR11:AT11)&gt;0,INDEX($AW$11:AW11,COUNT($BB$11:BB11)-1),"-1"),IF(AV11=1,J11,INDEX($AW$11:AW11,COUNT($BB$11:BB11)-1)))</f>
         <v>-1</v>
       </c>
-      <c r="AU11" s="91">
-        <f>IF(AS11=-1,-1,IF(AS11=1,M11,INDEX($AU$11:AU11,COUNT($AY$11:AY11)-1)))</f>
+      <c r="AX11" s="91">
+        <f>IF(AV11=-1,-1,IF(AV11=1,M11,INDEX($AX$11:AX11,COUNT($BB$11:BB11)-1)))</f>
         <v>-1</v>
       </c>
-      <c r="AV11" s="91" t="str">
-        <f>IF(AT11="-1","-1",IF(AT11&lt;&gt;J11,1,0))</f>
+      <c r="AY11" s="91" t="str">
+        <f>IF(AW11="-1","-1",IF(AW11&lt;&gt;J11,1,0))</f>
         <v>-1</v>
       </c>
-      <c r="AW11" s="72">
-        <f>IF(COUNT($AY$11:AY11)=MATCH(AN11,$AN$11:AN11,0),1,0)</f>
+      <c r="AZ11" s="72">
+        <f>IF(COUNT($BB$11:BB11)=MATCH(AQ11,$AQ$11:AQ11,0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AX11" s="72">
-        <f>SUMIFS($AY$11:$AY$700000,$AN$11:$AN$700000,AN11)</f>
+      <c r="BA11" s="72">
+        <f>SUMIFS($BB$11:$BB$700000,$AQ$11:$AQ$700000,AQ11)</f>
         <v>1</v>
       </c>
-      <c r="AY11" s="55">
+      <c r="BB11" s="55">
         <v>1</v>
       </c>
-      <c r="AZ11" s="69" t="str">
+      <c r="BC11" s="69" t="str">
         <f>$F$4</f>
         <v>-</v>
       </c>
-      <c r="BA11" s="83">
-        <f>IF(AZ11=AT11,IF(AW11=1,IF(AR11=1,0,IF(SUM(AO11:AQ11)&gt;0,0,1)),0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB11" s="83">
-        <f>IF(AZ11=D11,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="91">
-        <f>SUMIF(J11:$J$700000,D11,AY11:$AY$700000)</f>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="91" t="str">
-        <f>IF(AS11=-1,"0",1+INDEX($BD$11:$BD$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="55">
-        <f>SUMIFS($AY$11:$AY$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
-        <v>0</v>
-      </c>
-      <c r="BF11" s="55">
-        <f>IF(SUMIFS($AY$11:AY11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG11" s="55">
-        <f>IF(BF11=1,1,0)</f>
+      <c r="BD11" s="83">
+        <f>IF(AK11="True",IF(BC11=AW11,IF(AZ11=1,IF(AU11=1,0,IF(SUM(AR11:AT11)&gt;0,0,1)),0),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="83">
+        <f>IF(AK11="True",IF(BC11=D11,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="91">
+        <f>SUMIF(J11:$J$700000,D11,BB11:$BB$700000)</f>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="91" t="str">
+        <f>IF(AV11=-1,"0",1+INDEX($BG$11:$BG$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
         <v>0</v>
       </c>
       <c r="BH11" s="55">
+        <f>SUMIFS($BB$11:$BB$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="55">
+        <f>IF(SUMIFS($BB$11:BB11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="55">
+        <f>IF(BI11=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK11" s="55">
         <f>M11</f>
         <v>0</v>
       </c>
-      <c r="BI11" s="70"/>
-      <c r="BJ11" s="70"/>
-      <c r="BK11" s="70"/>
       <c r="BL11" s="70"/>
-      <c r="BM11" t="s">
+      <c r="BM11" s="70"/>
+      <c r="BN11" s="70"/>
+      <c r="BO11" s="70"/>
+      <c r="BP11" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AJ8:AL8"/>
+  <mergeCells count="14">
+    <mergeCell ref="AM8:AO8"/>
     <mergeCell ref="AG8:AI8"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="AA8:AC8"/>
@@ -20315,6 +20389,7 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="AJ8:AL8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/environment/runtimefiles/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\data\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C7007-2008-47CA-9D05-9F6CA8BE99F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6B208-4F4A-4151-9E08-5BC669DBA162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="2115" windowWidth="15735" windowHeight="15930" firstSheet="5" activeTab="7" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="780" yWindow="495" windowWidth="41325" windowHeight="19905" firstSheet="3" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="615">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -2610,6 +2610,30 @@
   </si>
   <si>
     <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[55]&gt;</t>
+  </si>
+  <si>
+    <t>VEL_POWER_SHR05</t>
+  </si>
+  <si>
+    <t>UUVEL_POWER_SHR05</t>
+  </si>
+  <si>
+    <t>VEL_POWER_SHAO05</t>
+  </si>
+  <si>
+    <t>UUVEL_POWER_SHAO05</t>
+  </si>
+  <si>
+    <t>VEL_POWER_SHO05</t>
+  </si>
+  <si>
+    <t>UUVEL_POWER_SHO05</t>
+  </si>
+  <si>
+    <t>VEL_LIGHT_YTR</t>
+  </si>
+  <si>
+    <t>UUVEL_LIGHT_YTR</t>
   </si>
 </sst>
 </file>
@@ -13205,8 +13229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
   <dimension ref="A1:IZ28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15708,7 +15732,7 @@
         <v>#N/A</v>
       </c>
       <c r="J28" s="61" t="e">
-        <f ca="1">IF(D28="","",AB28&amp;"кВт; "&amp;P28&amp;"В; "&amp;AC28&amp;"A; "&amp;AD28)</f>
+        <f ca="1">IF(D28="","",AB28&amp;"кВт; "&amp;P28&amp;"В; "&amp;AC28&amp;"A; "&amp;AD28&amp;"; dU="&amp;AG28)</f>
         <v>#N/A</v>
       </c>
       <c r="K28" s="208" t="e">
@@ -16498,23 +16522,23 @@
         <v>&lt;zcadnameblock&gt;</v>
       </c>
       <c r="HM28" s="121" t="e">
-        <f>FS28+12.5*$Z$5+INDEX(BDUGO!$D$4:$D$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))*$Z$5</f>
+        <f>FS28+12.5*$Z$5+INDEX(BDUGO!$D$4:$D$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0))*$Z$5</f>
         <v>#N/A</v>
       </c>
       <c r="HN28" s="121" t="e">
-        <f>FT28+42.5*$Z$6+INDEX(BDUGO!$E$4:$E$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))*$Z$6</f>
+        <f>FT28+42.5*$Z$6+INDEX(BDUGO!$E$4:$E$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0))*$Z$6</f>
         <v>#N/A</v>
       </c>
       <c r="HO28" s="121" t="e">
-        <f>IF(INDEX(BDUGO!$F$4:$F$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))=0,1,INDEX(BDUGO!$F$4:$F$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0)))*$Z$5</f>
+        <f>IF(INDEX(BDUGO!$F$4:$F$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0))=0,1,INDEX(BDUGO!$F$4:$F$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0)))*$Z$5</f>
         <v>#N/A</v>
       </c>
       <c r="HP28" s="121" t="e">
-        <f>IF(INDEX(BDUGO!$G$4:$G$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))=0,1,INDEX(BDUGO!$G$4:$G$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0)))*$Z$6</f>
+        <f>IF(INDEX(BDUGO!$G$4:$G$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0))=0,1,INDEX(BDUGO!$G$4:$G$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0)))*$Z$6</f>
         <v>#N/A</v>
       </c>
       <c r="HQ28" s="121" t="e">
-        <f>INDEX(BDUGO!$H$4:$H$33,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$33,0))</f>
+        <f>INDEX(BDUGO!$H$4:$H$41,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$41,0))</f>
         <v>#N/A</v>
       </c>
       <c r="HR28" s="151" t="s">
@@ -18603,10 +18627,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF4D7D-6E66-4BDD-B569-46F1C33B4B46}">
-  <dimension ref="C1:H33"/>
+  <dimension ref="C1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18688,7 +18712,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="164" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="D6" s="165">
         <v>0</v>
@@ -18708,7 +18732,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="164" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="D7" s="165">
         <v>0</v>
@@ -18728,7 +18752,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="164" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D8" s="165">
         <v>0</v>
@@ -18748,7 +18772,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="164" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D9" s="165">
         <v>0</v>
@@ -18768,7 +18792,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="164" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="D10" s="165">
         <v>0</v>
@@ -18788,7 +18812,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="164" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="D11" s="165">
         <v>0</v>
@@ -18808,7 +18832,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="164" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D12" s="165">
         <v>0</v>
@@ -18828,7 +18852,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="164" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D13" s="165">
         <v>0</v>
@@ -18848,7 +18872,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="164" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="D14" s="165">
         <v>0</v>
@@ -18868,7 +18892,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="164" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D15" s="165">
         <v>0</v>
@@ -18888,7 +18912,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="164" t="s">
-        <v>432</v>
+        <v>613</v>
       </c>
       <c r="D16" s="165">
         <v>0</v>
@@ -18897,10 +18921,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="165">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G16" s="165">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="H16" s="165">
         <v>0</v>
@@ -18908,7 +18932,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="164" t="s">
-        <v>436</v>
+        <v>614</v>
       </c>
       <c r="D17" s="165">
         <v>0</v>
@@ -18928,13 +18952,13 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="164" t="s">
-        <v>437</v>
+        <v>571</v>
       </c>
       <c r="D18" s="165">
         <v>0</v>
       </c>
       <c r="E18" s="165">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F18" s="165">
         <v>1</v>
@@ -18948,13 +18972,13 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="164" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D19" s="165">
         <v>0</v>
       </c>
       <c r="E19" s="165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F19" s="165">
         <v>1</v>
@@ -18968,13 +18992,13 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="164" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D20" s="165">
         <v>0</v>
       </c>
       <c r="E20" s="165">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F20" s="165">
         <v>1</v>
@@ -18988,13 +19012,13 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="164" t="s">
-        <v>439</v>
+        <v>580</v>
       </c>
       <c r="D21" s="165">
         <v>0</v>
       </c>
       <c r="E21" s="165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F21" s="165">
         <v>1</v>
@@ -19008,13 +19032,13 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="164" t="s">
-        <v>440</v>
+        <v>601</v>
       </c>
       <c r="D22" s="165">
         <v>0</v>
       </c>
       <c r="E22" s="165">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F22" s="165">
         <v>1</v>
@@ -19028,13 +19052,13 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="164" t="s">
-        <v>441</v>
+        <v>602</v>
       </c>
       <c r="D23" s="165">
         <v>0</v>
       </c>
       <c r="E23" s="165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F23" s="165">
         <v>1</v>
@@ -19048,19 +19072,19 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="164" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D24" s="165">
         <v>0</v>
       </c>
       <c r="E24" s="165">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F24" s="165">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G24" s="165">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="H24" s="165">
         <v>0</v>
@@ -19068,13 +19092,13 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="164" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D25" s="165">
         <v>0</v>
       </c>
       <c r="E25" s="165">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F25" s="165">
         <v>1</v>
@@ -19088,7 +19112,7 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="164" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D26" s="165">
         <v>0</v>
@@ -19108,13 +19132,13 @@
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="164" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="D27" s="165">
         <v>0</v>
       </c>
       <c r="E27" s="165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="165">
         <v>1</v>
@@ -19123,12 +19147,12 @@
         <v>1</v>
       </c>
       <c r="H27" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="164" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="D28" s="165">
         <v>0</v>
@@ -19143,18 +19167,18 @@
         <v>1</v>
       </c>
       <c r="H28" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="164" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="D29" s="165">
         <v>0</v>
       </c>
       <c r="E29" s="165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="165">
         <v>1</v>
@@ -19163,12 +19187,12 @@
         <v>1</v>
       </c>
       <c r="H29" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="164" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
       <c r="D30" s="165">
         <v>0</v>
@@ -19183,18 +19207,18 @@
         <v>1</v>
       </c>
       <c r="H30" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="164" t="s">
-        <v>575</v>
+        <v>441</v>
       </c>
       <c r="D31" s="165">
         <v>0</v>
       </c>
       <c r="E31" s="165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="165">
         <v>1</v>
@@ -19203,12 +19227,12 @@
         <v>1</v>
       </c>
       <c r="H31" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="164" t="s">
-        <v>576</v>
+        <v>442</v>
       </c>
       <c r="D32" s="165">
         <v>0</v>
@@ -19223,12 +19247,12 @@
         <v>1</v>
       </c>
       <c r="H32" s="165">
-        <v>4.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="164" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D33" s="165">
         <v>0</v>
@@ -19243,6 +19267,166 @@
         <v>1</v>
       </c>
       <c r="H33" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="164" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34" s="165">
+        <v>0</v>
+      </c>
+      <c r="E34" s="165">
+        <v>35</v>
+      </c>
+      <c r="F34" s="165">
+        <v>1</v>
+      </c>
+      <c r="G34" s="165">
+        <v>1</v>
+      </c>
+      <c r="H34" s="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="164" t="s">
+        <v>531</v>
+      </c>
+      <c r="D35" s="165">
+        <v>0</v>
+      </c>
+      <c r="E35" s="165">
+        <v>2</v>
+      </c>
+      <c r="F35" s="165">
+        <v>1</v>
+      </c>
+      <c r="G35" s="165">
+        <v>1</v>
+      </c>
+      <c r="H35" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="164" t="s">
+        <v>532</v>
+      </c>
+      <c r="D36" s="165">
+        <v>0</v>
+      </c>
+      <c r="E36" s="165">
+        <v>35</v>
+      </c>
+      <c r="F36" s="165">
+        <v>1</v>
+      </c>
+      <c r="G36" s="165">
+        <v>1</v>
+      </c>
+      <c r="H36" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="164" t="s">
+        <v>533</v>
+      </c>
+      <c r="D37" s="165">
+        <v>0</v>
+      </c>
+      <c r="E37" s="165">
+        <v>2</v>
+      </c>
+      <c r="F37" s="165">
+        <v>1</v>
+      </c>
+      <c r="G37" s="165">
+        <v>1</v>
+      </c>
+      <c r="H37" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="164" t="s">
+        <v>534</v>
+      </c>
+      <c r="D38" s="165">
+        <v>0</v>
+      </c>
+      <c r="E38" s="165">
+        <v>35</v>
+      </c>
+      <c r="F38" s="165">
+        <v>1</v>
+      </c>
+      <c r="G38" s="165">
+        <v>1</v>
+      </c>
+      <c r="H38" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="164" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" s="165">
+        <v>0</v>
+      </c>
+      <c r="E39" s="165">
+        <v>2</v>
+      </c>
+      <c r="F39" s="165">
+        <v>1</v>
+      </c>
+      <c r="G39" s="165">
+        <v>1</v>
+      </c>
+      <c r="H39" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="164" t="s">
+        <v>576</v>
+      </c>
+      <c r="D40" s="165">
+        <v>0</v>
+      </c>
+      <c r="E40" s="165">
+        <v>35</v>
+      </c>
+      <c r="F40" s="165">
+        <v>1</v>
+      </c>
+      <c r="G40" s="165">
+        <v>1</v>
+      </c>
+      <c r="H40" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="164" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="165">
+        <v>0</v>
+      </c>
+      <c r="E41" s="165">
+        <v>0</v>
+      </c>
+      <c r="F41" s="165">
+        <v>1</v>
+      </c>
+      <c r="G41" s="165">
+        <v>1</v>
+      </c>
+      <c r="H41" s="165">
         <v>0</v>
       </c>
     </row>
@@ -19593,7 +19777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
   <dimension ref="A3:BP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView topLeftCell="AV1" workbookViewId="0">
       <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
